--- a/data/tempalte_card.xlsx
+++ b/data/tempalte_card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\karidon\project\ConvertExcelToJson\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ADC407-E6B8-42ED-823A-B4582DE4CC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133C43B7-352C-4A88-92F1-3C70BED40EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>ФИО</t>
   </si>
@@ -345,6 +345,9 @@
   <si>
     <t xml:space="preserve"> https://instagram.com/danyamur
 https://instagram.com/_damn_67</t>
+  </si>
+  <si>
+    <t>29.02.2025</t>
   </si>
 </sst>
 </file>
@@ -686,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1048,9 +1051,128 @@
         <v>42</v>
       </c>
     </row>
+    <row r="4" spans="1:39" ht="335.15" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="1">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="1">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="5">
+        <v>23412341234123</v>
+      </c>
+      <c r="S4">
+        <v>45556666771</v>
+      </c>
+      <c r="T4" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4">
+        <v>89031111111</v>
+      </c>
+      <c r="X4">
+        <v>89035555555</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>